--- a/docs/excel/TVip.xlsx
+++ b/docs/excel/TVip.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -255,6 +255,18 @@
   </si>
   <si>
     <t>TableName: "TVip" Package: "table" CSClassHeader: "[System.Serializable]"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -686,8 +698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J219"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -697,7 +709,9 @@
     <col min="3" max="3" width="11.69921875" style="6" customWidth="1"/>
     <col min="4" max="4" width="8.796875" style="5"/>
     <col min="5" max="5" width="10.3984375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.796875" style="5"/>
+    <col min="6" max="6" width="10.59765625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="11" style="5" customWidth="1"/>
+    <col min="8" max="16384" width="8.796875" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -747,6 +761,21 @@
       </c>
       <c r="E2" s="5" t="s">
         <v>32</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">

--- a/docs/excel/TVip.xlsx
+++ b/docs/excel/TVip.xlsx
@@ -157,10 +157,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TotalExp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ExclusiveAchieve</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -267,6 +263,10 @@
   </si>
   <si>
     <t>int32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TotalExp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -699,7 +699,7 @@
   <dimension ref="A1:J219"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -725,25 +725,25 @@
         <v>36</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -757,25 +757,25 @@
         <v>33</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>56</v>
-      </c>
       <c r="I2" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -788,31 +788,31 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -2080,7 +2080,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">

--- a/docs/excel/TVip.xlsx
+++ b/docs/excel/TVip.xlsx
@@ -698,8 +698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -751,7 +751,7 @@
         <v>17</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>33</v>
